--- a/Test01-tudanhgia.xlsx
+++ b/Test01-tudanhgia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Min\ChuyenDeWeb1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ChuyenDeWeb1_Flight\CDW1_Flight\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>STT</t>
   </si>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>SV đạt</t>
-  </si>
-  <si>
-    <t>SV Giải thích thêm</t>
   </si>
 </sst>
 </file>
@@ -139,7 +136,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -188,17 +185,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -239,16 +225,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -526,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -538,17 +524,25 @@
     <col min="2" max="2" width="39.8984375" customWidth="1"/>
     <col min="3" max="3" width="25.09765625" customWidth="1"/>
     <col min="4" max="4" width="31.5" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="21.296875" customWidth="1"/>
+    <col min="7" max="7" width="16.3984375" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.05" customHeight="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:8" ht="31.05" customHeight="1">
+      <c r="A1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,12 +558,9 @@
       <c r="E2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="14" t="s">
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -581,12 +572,12 @@
       <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="14"/>
+      <c r="E3" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="13"/>
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
@@ -596,12 +587,12 @@
       <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="14"/>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="13"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
@@ -611,12 +602,12 @@
       <c r="D5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="14"/>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="13"/>
       <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
@@ -626,12 +617,12 @@
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="46.8">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:8" ht="46.8">
+      <c r="A7" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -643,12 +634,12 @@
       <c r="D7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="62.4">
-      <c r="A8" s="14"/>
+      <c r="E7" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="62.4">
+      <c r="A8" s="13"/>
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
@@ -658,12 +649,12 @@
       <c r="D8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="37.200000000000003" customHeight="1">
-      <c r="A9" s="14"/>
+      <c r="E8" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="37.200000000000003" customHeight="1">
+      <c r="A9" s="13"/>
       <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
@@ -673,12 +664,12 @@
       <c r="D9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="79.2" customHeight="1">
-      <c r="A10" s="14"/>
+    <row r="10" spans="1:8" ht="79.2" customHeight="1">
+      <c r="A10" s="13"/>
       <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
@@ -688,12 +679,12 @@
       <c r="D10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="14"/>
+      <c r="E10" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="13"/>
       <c r="B11" t="s">
         <v>16</v>
       </c>
@@ -703,11 +694,11 @@
       <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -720,29 +711,29 @@
       <c r="D12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
+    <row r="13" spans="1:8">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="5">
         <f>SUM(C3:C12)</f>
         <v>100</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5">
-        <f t="shared" ref="D13:E13" si="0">SUM(E3:E12)</f>
-        <v>85</v>
+        <f t="shared" ref="E13" si="0">SUM(E3:E12)</f>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
